--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -28,9 +28,6 @@
     <t>SPACE</t>
   </si>
   <si>
-    <t>Choses current button</t>
-  </si>
-  <si>
     <t>LEFT,RIGHT,UP,DOWN</t>
   </si>
   <si>
@@ -161,6 +158,10 @@
   </si>
   <si>
     <t>f\u00A0\u00A0\u00A0[Windows:  CTRL+SHIFT+f]</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
+When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
 </sst>
 </file>
@@ -203,9 +204,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,210 +519,210 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B25" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -145,9 +145,6 @@
     <t>CRTL+N</t>
   </si>
   <si>
-    <t>ALT+h</t>
-  </si>
-  <si>
     <t>KEYBOARD SHORTCUTS</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   <si>
     <t>When Keyboard Shortcuts are ON chooses the current button
 When Keyboard Shortcuts are OFF adds a custom event</t>
+  </si>
+  <si>
+    <t>ALT+h\u00A0\u00A0\u00A0[Windows: CTRL+ALT+h]</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>40</v>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -124,18 +124,6 @@
     <t>Desktop ScreenShot</t>
   </si>
   <si>
-    <t>q,w,e,r + &lt;i&gt;nn&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>Quick Custom Event</t>
-  </si>
-  <si>
-    <t>v + &lt;i&gt;nnn&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>Quick PID SV</t>
-  </si>
-  <si>
     <t>Full Screen Mode</t>
   </si>
   <si>
@@ -149,9 +137,6 @@
   </si>
   <si>
     <t>t\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+t]</t>
-  </si>
-  <si>
-    <t>h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
   </si>
   <si>
     <t>f\u00A0\u00A0\u00A0[Windows:  CTRL+SHIFT+f]</t>
@@ -161,7 +146,22 @@
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
-    <t>ALT+h\u00A0\u00A0\u00A0[Windows: CTRL+ALT+h]</t>
+    <t>ALT+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
+  </si>
+  <si>
+    <t>h\u00A0\u00A0\u00A0[Windows: CTRL+h]</t>
+  </si>
+  <si>
+    <t>q,w,e,r + &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+  </si>
+  <si>
+    <t>v +  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less that 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,12 +530,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -703,29 +703,30 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -219,12 +219,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,7 +279,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,17 +356,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -594,7 +588,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -71,7 +71,13 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle xy scale (T/Delta)</t>
+    <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -360,15 +366,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
   </cols>
   <sheetData>
@@ -441,7 +447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -505,7 +511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -517,15 +523,15 @@
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -583,6 +589,14 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle LCD cursor (off/profile/template)</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -366,13 +372,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -455,7 +461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -519,7 +525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -531,15 +537,15 @@
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -597,6 +603,14 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides LCD Readings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
@@ -372,13 +378,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -485,7 +491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -533,7 +539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -545,15 +551,15 @@
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -611,6 +617,14 @@
       </c>
       <c r="B29" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t xml:space="preserve">Toggle PID mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Playback Events</t>
   </si>
   <si>
     <t xml:space="preserve">h\u00A0\u00A0\u00A0[Windows: CTRL+h]</t>
@@ -378,13 +384,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -531,7 +537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -547,7 +553,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -559,15 +565,15 @@
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -625,6 +631,14 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">u</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/template)</t>
+    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -387,10 +387,10 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -56,7 +56,35 @@
     <t xml:space="preserve">Autosave</t>
   </si>
   <si>
-    <t xml:space="preserve">CRTL+N</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">COMMAND-N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Windows: CRTL+N]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Autosave + Reset + START</t>
@@ -140,7 +168,7 @@
     <t xml:space="preserve">Load background profile</t>
   </si>
   <si>
-    <t xml:space="preserve">ALT+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
+    <t xml:space="preserve">OPTION+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
   </si>
   <si>
     <t xml:space="preserve">Remove background profile</t>
@@ -170,7 +198,35 @@
     <t xml:space="preserve">Inc/dec PID lookahead</t>
   </si>
   <si>
-    <t xml:space="preserve">CRTL 0-9</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">COMMAND 0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Windows: CRTL 0-9]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Changes Event Button Palettes</t>
@@ -213,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,6 +298,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,11 +448,11 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -441,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -593,7 +655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="184">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">Inc/dec PID lookahead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ +,- [Mac]\nCRTL +,- [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inc/dec graph resolution</t>
   </si>
   <si>
     <t xml:space="preserve">⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
@@ -578,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -600,6 +606,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -654,7 +666,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,15 +683,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,15 +717,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
   </cols>
   <sheetData>
@@ -918,8 +934,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -964,6 +980,14 @@
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -988,393 +1012,393 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="72.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="45.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="45.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
+      <c r="A1" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>75</v>
+      <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>82</v>
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>84</v>
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>86</v>
+      <c r="A10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>90</v>
+      <c r="A12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>99</v>
+      <c r="C15" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>104</v>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>106</v>
+      <c r="A18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>111</v>
+      <c r="A20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>113</v>
+      <c r="A21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>123</v>
+      <c r="A28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>133</v>
+      <c r="A29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>135</v>
+      <c r="A30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>138</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1423,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.58"/>
@@ -1407,7 +1431,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,219 +1439,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>142</v>
+      <c r="A3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>144</v>
+      <c r="C4" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>145</v>
+      <c r="A5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="C7" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>151</v>
+      <c r="A8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>156</v>
+      <c r="C10" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>158</v>
+      <c r="A11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="6" t="s">
         <v>161</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>163</v>
+      <c r="C13" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>165</v>
+      <c r="A14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>167</v>
+      <c r="A15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>169</v>
+      <c r="A16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="6" t="s">
         <v>172</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>174</v>
+      <c r="C18" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>176</v>
+      <c r="A19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>178</v>
+      <c r="C20" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="6" t="s">
         <v>181</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roast\Documents\GitHub\artisan-roaster-scope\doc\help_dialogs\Input_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C154470-8E9C-4821-90A7-91F640777063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
+    <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
+    <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,588 +29,570 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="184">
   <si>
-    <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turns ON/OFF Keyboard Shortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Keyboard Shortcuts are ON chooses the current button
+    <t>KEYBOARD SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>Turns ON/OFF Keyboard Shortcuts</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
-    <t xml:space="preserve">LEFT,RIGHT,UP,DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move background or key focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘-N [Mac]\nCRTL+N [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave + RESET + START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T [Mac]\nCTRL+SHIFT+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle mouse cross lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides LCD Readings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Extra Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Sliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Playback Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H\nCTRL+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle foreground curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle background curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load alarms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+,-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec PID lookahead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ +,- [Mac]\nCRTL +,- [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec graph resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes Event Button Palettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
+    <t>LEFT,RIGHT,UP,DOWN</t>
+  </si>
+  <si>
+    <t>Move background or key focus</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Autosave</t>
+  </si>
+  <si>
+    <t>⌘-N [Mac]\nCRTL+N [Win]</t>
+  </si>
+  <si>
+    <t>Autosave + RESET + START</t>
+  </si>
+  <si>
+    <t>T [Mac]\nCTRL+SHIFT+T [Win]</t>
+  </si>
+  <si>
+    <t>Toggle mouse cross lines</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor mode (off/temp/delta)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Toggle LCD cursor (off/profile/background)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Shows/Hides Controls</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Shows/Hides LCD Readings</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shows/Hides Mini Event editor (on recording)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Buttons</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Shows/Hides Extra Event Buttons</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Sliders</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Toggle PID mode</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Toggle Playback Events</t>
+  </si>
+  <si>
+    <t>H\nCTRL+H [Win]</t>
+  </si>
+  <si>
+    <t>Load background profile</t>
+  </si>
+  <si>
+    <t>OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
+  </si>
+  <si>
+    <t>Remove background profile</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Toggle foreground curves “show full”</t>
+  </si>
+  <si>
+    <t>Toggle background curves “show full”</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Load alarms</t>
+  </si>
+  <si>
+    <t>+,-</t>
+  </si>
+  <si>
+    <t>Inc/dec PID lookahead</t>
+  </si>
+  <si>
+    <t>⌘ +,- [Mac]\nCRTL +,- [Win]</t>
+  </si>
+  <si>
+    <t>Inc/dec graph resolution</t>
+  </si>
+  <si>
+    <t>⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
+  </si>
+  <si>
+    <t>Changes Event Button Palettes</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Application ScreenShot</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Desktop ScreenShot</t>
+  </si>
+  <si>
+    <t>Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less that 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
-    <t xml:space="preserve">V +  &lt;value&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F\nCTRL+SHIFT+F [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Screen Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADDITIONAL SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key/mouse stroke(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double click on Roast Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the roast in artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires an artisan.plus account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Background Profile Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only when a Background profile is loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on BT curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place or re-place events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle super mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on characteristics line below graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle set of characteristics displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characteristics must be enabled in Config&gt;&gt; Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when not red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle connect/disconnect to plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when it is red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sync the roast with artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When connected to plus, disconnect and clear credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate email message with Artisan Logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle debug logging mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph/Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide or Show corresponding Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on label in the Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detach IO Phidgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID Standby on and off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Fuji or Delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opens PID dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Hottop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Data tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+L [Mac]\nCTRL+L [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open volume calculator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires a connected scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+I [Mac]\nCTRL+I [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Green Weight field (same action as 'in' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+O [Mac]\nCTRL+O [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+P [Mac]\nCTRL+P [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For various tables this copies the table in tabular form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENU SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+S [Mac]\nCTRL+S [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+X [Mac]\nCTRL+X [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+V [Mac]\nCTRL+V [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+T [Mac]\nCTRL+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Roast Properties dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+B [Mac]\nCTRL+B [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Profile Background dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch Profiles (Foreground&lt;=&gt;Background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+D [Mac]\nCTRL+D [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Devices dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+U [Mac]\nCTRL+U [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Curves dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+E [Mac]\nCTRL+E [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Events dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+A [Mac]\nCTRL+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Alarms dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Axes dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+K [Mac]\nCTRL+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Auto All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION+A [Mac]\nCTRL+OPTION+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Clear Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show/Hide Large Main LCDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
+    <t>V +  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+  </si>
+  <si>
+    <t>F\nCTRL+SHIFT+F [Win]</t>
+  </si>
+  <si>
+    <t>Full Screen Mode</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Key/mouse stroke(s)</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Double click on Roast Title</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Open the roast in artisan.plus</t>
+  </si>
+  <si>
+    <t>Requires an artisan.plus account</t>
+  </si>
+  <si>
+    <t>Click on Background Profile Title</t>
+  </si>
+  <si>
+    <t>Toggle Show/Hide Background Profile</t>
+  </si>
+  <si>
+    <t>Only when a Background profile is loaded</t>
+  </si>
+  <si>
+    <t>Right click on BT curve</t>
+  </si>
+  <si>
+    <t>Place or re-place events</t>
+  </si>
+  <si>
+    <t>Right click on timer</t>
+  </si>
+  <si>
+    <t>Toggle super mode</t>
+  </si>
+  <si>
+    <t>Right click on characteristics line below graph</t>
+  </si>
+  <si>
+    <t>Toggle set of characteristics displayed</t>
+  </si>
+  <si>
+    <t>Characteristics must be enabled in Config&gt;&gt; Statistics</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when not red)</t>
+  </si>
+  <si>
+    <t>Toggle connect/disconnect to plus</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when it is red)</t>
+  </si>
+  <si>
+    <t>Sync the roast with artisan.plus</t>
+  </si>
+  <si>
+    <t>⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>When connected to plus, disconnect and clear credentials</t>
+  </si>
+  <si>
+    <t>OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Generate email message with Artisan Logs</t>
+  </si>
+  <si>
+    <t>⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Toggle debug logging mode</t>
+  </si>
+  <si>
+    <t>Click on timer</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>Toggle Pause/Continue Simulation</t>
+  </si>
+  <si>
+    <t>Simulator speed may be changd while paused.  See next two shortcuts.</t>
+  </si>
+  <si>
+    <t>OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Graph/Simulator</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t>⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
+    <t>Click on LCD</t>
+  </si>
+  <si>
+    <t>Hide or Show corresponding Curve</t>
+  </si>
+  <si>
+    <t>In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
+  </si>
+  <si>
+    <t>Click on label in the Legend</t>
+  </si>
+  <si>
+    <t>Only in OFF state when the Legend is displayed</t>
+  </si>
+  <si>
+    <t>OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
+  </si>
+  <si>
+    <t>Detach IO Phidgets</t>
+  </si>
+  <si>
+    <t>⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
+  </si>
+  <si>
+    <t>Toggle PID Standby on and off</t>
+  </si>
+  <si>
+    <t>Device = Fuji or Delta</t>
+  </si>
+  <si>
+    <t>Opens PID dialog</t>
+  </si>
+  <si>
+    <t>Device = Hottop</t>
+  </si>
+  <si>
+    <t>Toggle PID</t>
+  </si>
+  <si>
+    <t>Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
+  </si>
+  <si>
+    <t>⌘+C [Mac]\nCTRL+C [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Data tab</t>
+  </si>
+  <si>
+    <t>Copy table</t>
+  </si>
+  <si>
+    <t>⌘+L [Mac]\nCTRL+L [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab</t>
+  </si>
+  <si>
+    <t>Open volume calculator</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
+  </si>
+  <si>
+    <t>Requires a connected scale</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight</t>
+  </si>
+  <si>
+    <t>⌘+I [Mac]\nCTRL+I [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Green Weight field (same action as 'in' button)</t>
+  </si>
+  <si>
+    <t>⌘+O [Mac]\nCTRL+O [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
+  </si>
+  <si>
+    <t>⌘+P [Mac]\nCTRL+P [Win]</t>
+  </si>
+  <si>
+    <t>Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
+  </si>
+  <si>
+    <t>OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
+  </si>
+  <si>
+    <t>Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
+  </si>
+  <si>
+    <t>OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
+  </si>
+  <si>
+    <t>OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>For various tables this copies the table in tabular form</t>
+  </si>
+  <si>
+    <t>MENU SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>⌘+S [Mac]\nCTRL+S [Win]</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>⌘+X [Mac]\nCTRL+X [Win]</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>⌘+V [Mac]\nCTRL+V [Win]</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>⌘+T [Mac]\nCTRL+T [Win]</t>
+  </si>
+  <si>
+    <t>Roast</t>
+  </si>
+  <si>
+    <t>Open Roast Properties dialog</t>
+  </si>
+  <si>
+    <t>⌘+B [Mac]\nCTRL+B [Win]</t>
+  </si>
+  <si>
+    <t>Open Profile Background dialog</t>
+  </si>
+  <si>
+    <t>⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
+  </si>
+  <si>
+    <t>Switch Profiles (Foreground&lt;=&gt;Background)</t>
+  </si>
+  <si>
+    <t>⌘+D [Mac]\nCTRL+D [Win]</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Open Devices dialog</t>
+  </si>
+  <si>
+    <t>⌘+U [Mac]\nCTRL+U [Win]</t>
+  </si>
+  <si>
+    <t>Open Curves dialog</t>
+  </si>
+  <si>
+    <t>⌘+E [Mac]\nCTRL+E [Win]</t>
+  </si>
+  <si>
+    <t>Open Events dialog</t>
+  </si>
+  <si>
+    <t>⌘+A [Mac]\nCTRL+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Alarms dialog</t>
+  </si>
+  <si>
+    <t>⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Axes dialog</t>
+  </si>
+  <si>
+    <t>⌘+K [Mac]\nCTRL+K [Win]</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Analyzer Auto All</t>
+  </si>
+  <si>
+    <t>Analyzer Clear Results</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Show/Hide Large Main LCDs</t>
+  </si>
+  <si>
+    <t>⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Full Screen Mode \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 </t>
   </si>
   <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open QuickStart Guide in the system browser</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Open QuickStart Guide in the system browser</t>
+  </si>
+  <si>
+    <t>⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -615,6 +602,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -629,7 +623,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -637,104 +631,362 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
+    <col min="1" max="1" width="33.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -782,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -790,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -798,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -806,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -814,7 +1066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -822,7 +1074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -830,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -838,7 +1090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -846,7 +1098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -854,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -862,7 +1114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -870,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -878,7 +1130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -886,7 +1138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -894,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -902,7 +1154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -910,7 +1162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -918,7 +1170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -926,7 +1178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -934,7 +1186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -942,7 +1194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -950,7 +1202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -958,7 +1210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -966,7 +1218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -974,7 +1226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -982,7 +1234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -991,42 +1243,34 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="45.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.13"/>
+    <col min="1" max="1" width="53" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="72" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" style="5" customWidth="1"/>
+    <col min="5" max="1024" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1040,7 +1284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -1054,7 +1298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -1068,7 +1312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -1079,7 +1323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
@@ -1090,7 +1334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -1104,7 +1348,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -1115,7 +1359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
@@ -1126,7 +1370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>87</v>
       </c>
@@ -1137,7 +1381,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
@@ -1148,7 +1392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
@@ -1159,7 +1403,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
@@ -1173,7 +1417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
@@ -1184,7 +1428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>100</v>
       </c>
@@ -1195,7 +1439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
@@ -1209,7 +1453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -1223,7 +1467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>107</v>
       </c>
@@ -1234,7 +1478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>109</v>
       </c>
@@ -1248,7 +1492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>109</v>
       </c>
@@ -1262,7 +1506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>109</v>
       </c>
@@ -1276,7 +1520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>116</v>
       </c>
@@ -1287,7 +1531,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -1298,7 +1542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>122</v>
       </c>
@@ -1312,7 +1556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>122</v>
       </c>
@@ -1326,7 +1570,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>128</v>
       </c>
@@ -1340,7 +1584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
@@ -1354,7 +1598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>132</v>
       </c>
@@ -1368,7 +1612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>134</v>
       </c>
@@ -1379,7 +1623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>136</v>
       </c>
@@ -1390,7 +1634,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>138</v>
       </c>
@@ -1402,39 +1646,32 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.58"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>130</v>
       </c>
@@ -1456,7 +1693,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>145</v>
       </c>
@@ -1467,7 +1704,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
@@ -1478,7 +1715,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>148</v>
       </c>
@@ -1489,7 +1726,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>116</v>
       </c>
@@ -1500,7 +1737,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>152</v>
       </c>
@@ -1511,7 +1748,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
@@ -1522,7 +1759,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>157</v>
       </c>
@@ -1533,7 +1770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>159</v>
       </c>
@@ -1544,7 +1781,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>161</v>
       </c>
@@ -1555,7 +1792,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>164</v>
       </c>
@@ -1566,7 +1803,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>166</v>
       </c>
@@ -1577,7 +1814,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>168</v>
       </c>
@@ -1588,7 +1825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>170</v>
       </c>
@@ -1599,7 +1836,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>172</v>
       </c>
@@ -1610,57 +1847,52 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>183</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire custom event button action. Value is a two digit number indicating the button number.</t>
   </si>
   <si>
     <t xml:space="preserve">F\nCTRL+SHIFT+F [Win]</t>
@@ -709,11 +715,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.11"/>
@@ -972,7 +978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -980,7 +986,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1016,393 +1029,393 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="72.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="45.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="9.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1440,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
@@ -1436,7 +1449,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,219 +1457,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
+    <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
+    <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,575 +21,584 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
-  <si>
-    <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turns ON/OFF Keyboard Shortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Keyboard Shortcuts are ON chooses the current button
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
+  <si>
+    <t>KEYBOARD SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>Turns ON/OFF Keyboard Shortcuts</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
-    <t xml:space="preserve">LEFT,RIGHT,UP,DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move background or key focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘-N [Mac]\nCRTL+N [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave + RESET + START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T [Mac]\nCTRL+SHIFT+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle mouse cross lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides LCD Readings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Extra Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Sliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Playback Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H\nCTRL+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle foreground curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle background curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load alarms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+,-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec PID lookahead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ +,- [Mac]\nCRTL +,- [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec graph resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes Event Button Palettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
+    <t>LEFT,RIGHT,UP,DOWN</t>
+  </si>
+  <si>
+    <t>Move background or key focus</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Autosave</t>
+  </si>
+  <si>
+    <t>⌘-N [Mac]\nCRTL+N [Win]</t>
+  </si>
+  <si>
+    <t>Autosave + RESET + START</t>
+  </si>
+  <si>
+    <t>T [Mac]\nCTRL+SHIFT+T [Win]</t>
+  </si>
+  <si>
+    <t>Toggle mouse cross lines</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor mode (off/temp/delta)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Toggle LCD cursor (off/profile/background)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Shows/Hides Controls</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Shows/Hides LCD Readings</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shows/Hides Mini Event editor (on recording)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Buttons</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Shows/Hides Extra Event Buttons</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Sliders</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Toggle PID mode</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Toggle Playback Events</t>
+  </si>
+  <si>
+    <t>H\nCTRL+H [Win]</t>
+  </si>
+  <si>
+    <t>Load background profile</t>
+  </si>
+  <si>
+    <t>OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
+  </si>
+  <si>
+    <t>Remove background profile</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Toggle foreground curves “show full”</t>
+  </si>
+  <si>
+    <t>Toggle background curves “show full”</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Load alarms</t>
+  </si>
+  <si>
+    <t>+,-</t>
+  </si>
+  <si>
+    <t>Inc/dec PID lookahead</t>
+  </si>
+  <si>
+    <t>⌘ +,- [Mac]\nCRTL +,- [Win]</t>
+  </si>
+  <si>
+    <t>Inc/dec graph resolution</t>
+  </si>
+  <si>
+    <t>⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
+  </si>
+  <si>
+    <t>Changes Event Button Palettes</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Application ScreenShot</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Desktop ScreenShot</t>
+  </si>
+  <si>
+    <t>Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less that 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
-    <t xml:space="preserve">V +  &lt;value&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire custom event button action. Value is a two digit number indicating the button number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F\nCTRL+SHIFT+F [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Screen Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADDITIONAL SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key/mouse stroke(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double click on Roast Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the roast in artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires an artisan.plus account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Background Profile Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only when a Background profile is loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on BT curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place or re-place events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle super mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on characteristics line below graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle set of characteristics displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characteristics must be enabled in Config&gt;&gt; Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when not red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle connect/disconnect to plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when it is red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sync the roast with artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When connected to plus, disconnect and clear credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate email message with Artisan Logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle debug logging mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph/Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide or Show corresponding Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on label in the Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detach IO Phidgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID Standby on and off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Fuji or Delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opens PID dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Hottop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Data tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+L [Mac]\nCTRL+L [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open volume calculator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires a connected scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+I [Mac]\nCTRL+I [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Green Weight field (same action as 'in' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+O [Mac]\nCTRL+O [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+P [Mac]\nCTRL+P [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For various tables this copies the table in tabular form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENU SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+S [Mac]\nCTRL+S [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+X [Mac]\nCTRL+X [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+V [Mac]\nCTRL+V [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+T [Mac]\nCTRL+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Roast Properties dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+B [Mac]\nCTRL+B [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Profile Background dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch Profiles (Foreground&lt;=&gt;Background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+D [Mac]\nCTRL+D [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Devices dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+U [Mac]\nCTRL+U [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Curves dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+E [Mac]\nCTRL+E [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Events dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+A [Mac]\nCTRL+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Alarms dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Axes dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+K [Mac]\nCTRL+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Auto All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Clear Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show/Hide Large Main LCDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
+    <t>V +  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+  </si>
+  <si>
+    <t>OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Fire custom event button action. Value is a two digit number indicating the button number.</t>
+  </si>
+  <si>
+    <t>F\nCTRL+SHIFT+F [Win]</t>
+  </si>
+  <si>
+    <t>Full Screen Mode</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Key/mouse stroke(s)</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Double click on Roast Title</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Open the roast in artisan.plus</t>
+  </si>
+  <si>
+    <t>Requires an artisan.plus account</t>
+  </si>
+  <si>
+    <t>Click on Background Profile Title</t>
+  </si>
+  <si>
+    <t>Toggle Show/Hide Background Profile</t>
+  </si>
+  <si>
+    <t>Only when a Background profile is loaded</t>
+  </si>
+  <si>
+    <t>Right click on BT curve</t>
+  </si>
+  <si>
+    <t>Place or re-place events</t>
+  </si>
+  <si>
+    <t>Right click on timer</t>
+  </si>
+  <si>
+    <t>Toggle super mode</t>
+  </si>
+  <si>
+    <t>Right click on characteristics line below graph</t>
+  </si>
+  <si>
+    <t>Toggle set of characteristics displayed</t>
+  </si>
+  <si>
+    <t>Characteristics must be enabled in Config&gt;&gt; Statistics</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when not red)</t>
+  </si>
+  <si>
+    <t>Toggle connect/disconnect to plus</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when it is red)</t>
+  </si>
+  <si>
+    <t>Sync the roast with artisan.plus</t>
+  </si>
+  <si>
+    <t>⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>When connected to plus, disconnect and clear credentials</t>
+  </si>
+  <si>
+    <t>OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Generate email message with Artisan Logs</t>
+  </si>
+  <si>
+    <t>⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Toggle debug logging mode</t>
+  </si>
+  <si>
+    <t>Click on timer</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>Toggle Pause/Continue Simulation</t>
+  </si>
+  <si>
+    <t>Simulator speed may be changd while paused.  See next two shortcuts.</t>
+  </si>
+  <si>
+    <t>OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Graph/Simulator</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t>⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
+    <t>Click on LCD</t>
+  </si>
+  <si>
+    <t>Hide or Show corresponding Curve</t>
+  </si>
+  <si>
+    <t>In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
+  </si>
+  <si>
+    <t>Click on label in the Legend</t>
+  </si>
+  <si>
+    <t>Only in OFF state when the Legend is displayed</t>
+  </si>
+  <si>
+    <t>OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
+  </si>
+  <si>
+    <t>Detach IO Phidgets</t>
+  </si>
+  <si>
+    <t>⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
+  </si>
+  <si>
+    <t>Toggle PID Standby on and off</t>
+  </si>
+  <si>
+    <t>Device = Fuji or Delta</t>
+  </si>
+  <si>
+    <t>Opens PID dialog</t>
+  </si>
+  <si>
+    <t>Device = Hottop</t>
+  </si>
+  <si>
+    <t>Toggle PID</t>
+  </si>
+  <si>
+    <t>Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
+  </si>
+  <si>
+    <t>⌘+C [Mac]\nCTRL+C [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Data tab</t>
+  </si>
+  <si>
+    <t>Copy table</t>
+  </si>
+  <si>
+    <t>⌘+L [Mac]\nCTRL+L [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab</t>
+  </si>
+  <si>
+    <t>Open volume calculator</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
+  </si>
+  <si>
+    <t>Requires a connected scale</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight</t>
+  </si>
+  <si>
+    <t>⌘+I [Mac]\nCTRL+I [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Green Weight field (same action as 'in' button)</t>
+  </si>
+  <si>
+    <t>⌘+O [Mac]\nCTRL+O [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
+  </si>
+  <si>
+    <t>⌘+P [Mac]\nCTRL+P [Win]</t>
+  </si>
+  <si>
+    <t>Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
+  </si>
+  <si>
+    <t>OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
+  </si>
+  <si>
+    <t>Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
+  </si>
+  <si>
+    <t>OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
+  </si>
+  <si>
+    <t>OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>For various tables this copies the table in tabular form</t>
+  </si>
+  <si>
+    <t>MENU SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>⌘+S [Mac]\nCTRL+S [Win]</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>⌘+X [Mac]\nCTRL+X [Win]</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>⌘+V [Mac]\nCTRL+V [Win]</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>⌘+T [Mac]\nCTRL+T [Win]</t>
+  </si>
+  <si>
+    <t>Roast</t>
+  </si>
+  <si>
+    <t>Open Roast Properties dialog</t>
+  </si>
+  <si>
+    <t>⌘+B [Mac]\nCTRL+B [Win]</t>
+  </si>
+  <si>
+    <t>Open Profile Background dialog</t>
+  </si>
+  <si>
+    <t>⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
+  </si>
+  <si>
+    <t>Switch Profiles (Foreground&lt;=&gt;Background)</t>
+  </si>
+  <si>
+    <t>⌘+D [Mac]\nCTRL+D [Win]</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Open Devices dialog</t>
+  </si>
+  <si>
+    <t>⌘+U [Mac]\nCTRL+U [Win]</t>
+  </si>
+  <si>
+    <t>Open Curves dialog</t>
+  </si>
+  <si>
+    <t>⌘+E [Mac]\nCTRL+E [Win]</t>
+  </si>
+  <si>
+    <t>Open Events dialog</t>
+  </si>
+  <si>
+    <t>⌘+A [Mac]\nCTRL+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Alarms dialog</t>
+  </si>
+  <si>
+    <t>⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Axes dialog</t>
+  </si>
+  <si>
+    <t>⌘+K [Mac]\nCTRL+K [Win]</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Analyzer Auto All</t>
+  </si>
+  <si>
+    <t>⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
+  </si>
+  <si>
+    <t>Analyzer Clear Results</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Show/Hide Large Main LCDs</t>
+  </si>
+  <si>
+    <t>⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Full Screen Mode \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 </t>
   </si>
   <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open QuickStart Guide in the system browser</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Open QuickStart Guide in the system browser</t>
+  </si>
+  <si>
+    <t>Navigation Toolbar</t>
+  </si>
+  <si>
+    <t>Click on Home Icon\nWhile recording only</t>
+  </si>
+  <si>
+    <t>Toggle Zoom Follow (automatic panning)</t>
+  </si>
+  <si>
+    <t>Zoom action while recording sets Follow ON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -599,22 +607,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -629,7 +629,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -637,100 +637,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.11"/>
+    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -738,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -770,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -778,7 +1025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -786,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -794,7 +1041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -802,7 +1049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -810,7 +1057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -818,7 +1065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -826,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -834,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -842,7 +1089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -850,7 +1097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -858,7 +1105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -866,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -874,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -882,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -890,7 +1137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -898,7 +1145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -906,7 +1153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -914,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -922,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -930,7 +1177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -938,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -946,7 +1193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -954,7 +1201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -962,7 +1209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -970,7 +1217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -978,7 +1225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -986,7 +1233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -994,56 +1241,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="72.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="45.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="9.12"/>
+    <col min="1" max="1" width="53" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72" style="4" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="4" customWidth="1"/>
+    <col min="5" max="1024" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
@@ -1057,7 +1283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1071,7 +1297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -1085,7 +1311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -1096,7 +1322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -1107,7 +1333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -1121,7 +1347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -1132,7 +1358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -1143,7 +1369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1154,7 +1380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -1165,7 +1391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
@@ -1176,7 +1402,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -1190,7 +1416,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -1201,7 +1427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>102</v>
       </c>
@@ -1212,7 +1438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>104</v>
       </c>
@@ -1226,7 +1452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>107</v>
       </c>
@@ -1240,7 +1466,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>109</v>
       </c>
@@ -1251,7 +1477,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>111</v>
       </c>
@@ -1265,7 +1491,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>111</v>
       </c>
@@ -1279,7 +1505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
@@ -1293,7 +1519,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>118</v>
       </c>
@@ -1304,7 +1530,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -1315,7 +1541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -1329,7 +1555,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>124</v>
       </c>
@@ -1343,7 +1569,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>130</v>
       </c>
@@ -1357,7 +1583,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -1371,7 +1597,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
@@ -1385,7 +1611,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>136</v>
       </c>
@@ -1396,7 +1622,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>138</v>
       </c>
@@ -1407,7 +1633,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>140</v>
       </c>
@@ -1418,41 +1644,47 @@
         <v>142</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.56"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>132</v>
       </c>
@@ -1474,7 +1706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>147</v>
       </c>
@@ -1485,7 +1717,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>134</v>
       </c>
@@ -1496,7 +1728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>150</v>
       </c>
@@ -1507,7 +1739,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -1518,7 +1750,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>154</v>
       </c>
@@ -1529,7 +1761,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>156</v>
       </c>
@@ -1540,7 +1772,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>159</v>
       </c>
@@ -1551,7 +1783,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>161</v>
       </c>
@@ -1562,7 +1794,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>163</v>
       </c>
@@ -1573,7 +1805,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>166</v>
       </c>
@@ -1584,7 +1816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>168</v>
       </c>
@@ -1595,7 +1827,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
@@ -1606,7 +1838,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>172</v>
       </c>
@@ -1617,7 +1849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>174</v>
       </c>
@@ -1628,7 +1860,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>177</v>
       </c>
@@ -1639,7 +1871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>121</v>
       </c>
@@ -1650,7 +1882,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>181</v>
       </c>
@@ -1661,7 +1893,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>183</v>
       </c>
@@ -1673,12 +1905,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
+    <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
+    <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,683 +21,689 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="208">
-  <si>
-    <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turns ON/OFF Keyboard Shortcuts</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="211">
+  <si>
+    <t>KEYBOARD SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>Turns ON/OFF Keyboard Shortcuts</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">⌘-</t>
+      <t>⌘-</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ENTER [Mac]\nCTRL+ENTER [Win]</t>
+      <t>ENTER [Mac]\nCTRL+ENTER [Win]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Starts recording</t>
+    <t>Starts recording</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">SHIFT-</t>
+      <t>SHIFT-</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ENTER</t>
+      <t>ENTER</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Turns Artisan OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Keyboard Shortcuts are ON chooses the current button
+    <t>Turns Artisan OFF</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
-    <t xml:space="preserve">LEFT,RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change roast event key focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEFT,RIGHT,UP,DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move background (when sliders not visible or when Config&gt;&gt; Events&gt;&gt; Sliders tab&gt;&gt; Keyboard Control is not selected)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘-N [Mac]\nCRTL+N [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave + RESET + START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T [Mac]\nCTRL+SHIFT+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle mouse cross lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides LCD Readings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Extra Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Sliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Playback Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H\nCTRL+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle foreground curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle background curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load alarms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+,-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec PID lookahead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ +,- [Mac]\nCRTL +,- [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec graph resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes Event Button Palettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
+    <t>LEFT,RIGHT</t>
+  </si>
+  <si>
+    <t>Change roast event key focus</t>
+  </si>
+  <si>
+    <t>LEFT,RIGHT,UP,DOWN</t>
+  </si>
+  <si>
+    <t>Move background (when sliders not visible or when Config&gt;&gt; Events&gt;&gt; Sliders tab&gt;&gt; Keyboard Control is not selected)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Autosave</t>
+  </si>
+  <si>
+    <t>⌘-N [Mac]\nCRTL+N [Win]</t>
+  </si>
+  <si>
+    <t>Autosave + RESET + START</t>
+  </si>
+  <si>
+    <t>T [Mac]\nCTRL+SHIFT+T [Win]</t>
+  </si>
+  <si>
+    <t>Toggle mouse cross lines</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor mode (off/temp/delta)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Toggle LCD cursor (off/profile/background)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Shows/Hides Controls</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Shows/Hides LCD Readings</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shows/Hides Mini Event editor (on recording)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Buttons</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Shows/Hides Extra Event Buttons</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Sliders</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Toggle PID mode</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Toggle Playback Events</t>
+  </si>
+  <si>
+    <t>H\nCTRL+H [Win]</t>
+  </si>
+  <si>
+    <t>Load background profile</t>
+  </si>
+  <si>
+    <t>OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
+  </si>
+  <si>
+    <t>Remove background profile</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Toggle foreground curves “show full”</t>
+  </si>
+  <si>
+    <t>Toggle background curves “show full”</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Load alarms</t>
+  </si>
+  <si>
+    <t>+,-</t>
+  </si>
+  <si>
+    <t>Inc/dec PID lookahead</t>
+  </si>
+  <si>
+    <t>⌘ +,- [Mac]\nCRTL +,- [Win]</t>
+  </si>
+  <si>
+    <t>Inc/dec graph resolution</t>
+  </si>
+  <si>
+    <t>⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
+  </si>
+  <si>
+    <t>Changes Event Button Palettes</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Application ScreenShot</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Desktop ScreenShot</t>
+  </si>
+  <si>
+    <t>Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
-    <t xml:space="preserve">V +  &lt;value&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire custom event button action. Value is a two digit number indicating the button number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F\nCTRL+SHIFT+F [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Screen Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADDITIONAL SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key/mouse stroke(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double click on Roast Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the roast in artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires an artisan.plus account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Click on Background Profile Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph &amp; Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only when a Background profile is loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on BT curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place or re-place events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle super mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on characteristics line below graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle set of characteristics displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characteristics must be enabled in Config&gt;&gt; Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when not red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle connect/disconnect to plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when it is red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sync the roast with artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When connected to plus, disconnect and clear credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate email message with Artisan Logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle debug logging mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide or Show corresponding Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on label in the Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detach IO Phidgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID Standby on and off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Fuji or Delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opens PID dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Hottop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph when Sliders visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence slider select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
+    <t>V +  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+  </si>
+  <si>
+    <t>OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Fire custom event button action. Value is a two digit number indicating the button number.</t>
+  </si>
+  <si>
+    <t>F\nCTRL+SHIFT+F [Win]</t>
+  </si>
+  <si>
+    <t>Full Screen Mode</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Key/mouse stroke(s)</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Double click on Roast Title</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Open the roast in artisan.plus</t>
+  </si>
+  <si>
+    <t>Requires an artisan.plus account</t>
+  </si>
+  <si>
+    <t>Double Click on Background Profile Title</t>
+  </si>
+  <si>
+    <t>Graph &amp; Designer</t>
+  </si>
+  <si>
+    <t>Toggle Show/Hide Background Profile</t>
+  </si>
+  <si>
+    <t>Only when a Background profile is loaded</t>
+  </si>
+  <si>
+    <t>Right click on BT curve</t>
+  </si>
+  <si>
+    <t>Place or re-place events</t>
+  </si>
+  <si>
+    <t>Right click on timer</t>
+  </si>
+  <si>
+    <t>Toggle super mode</t>
+  </si>
+  <si>
+    <t>Right click on characteristics line below graph</t>
+  </si>
+  <si>
+    <t>Toggle set of characteristics displayed</t>
+  </si>
+  <si>
+    <t>Characteristics must be enabled in Config&gt;&gt; Statistics</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when not red)</t>
+  </si>
+  <si>
+    <t>Toggle connect/disconnect to plus</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when it is red)</t>
+  </si>
+  <si>
+    <t>Sync the roast with artisan.plus</t>
+  </si>
+  <si>
+    <t>⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>When connected to plus, disconnect and clear credentials</t>
+  </si>
+  <si>
+    <t>OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Generate email message with Artisan Logs</t>
+  </si>
+  <si>
+    <t>⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Toggle debug logging mode</t>
+  </si>
+  <si>
+    <t>Click on LCD</t>
+  </si>
+  <si>
+    <t>Hide or Show corresponding Curve</t>
+  </si>
+  <si>
+    <t>In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
+  </si>
+  <si>
+    <t>Click on label in the Legend</t>
+  </si>
+  <si>
+    <t>Only in OFF state when the Legend is displayed</t>
+  </si>
+  <si>
+    <t>OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
+  </si>
+  <si>
+    <t>Detach IO Phidgets</t>
+  </si>
+  <si>
+    <t>⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
+  </si>
+  <si>
+    <t>Toggle PID Standby on and off</t>
+  </si>
+  <si>
+    <t>Device = Fuji or Delta</t>
+  </si>
+  <si>
+    <t>Opens PID dialog</t>
+  </si>
+  <si>
+    <t>Device = Hottop</t>
+  </si>
+  <si>
+    <t>Toggle PID</t>
+  </si>
+  <si>
+    <t>Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>Graph when Sliders visible</t>
+  </si>
+  <si>
+    <t>Sequence slider select</t>
+  </si>
+  <si>
+    <t>Requires Keyboard Control enabled in Config&gt;&gt; Events
 Keyboard Shortcuts must be turned off (ENTER)</t>
   </si>
   <si>
-    <t xml:space="preserve">UP,DOWN,RIGHT,LEFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment selected slider up or down by step amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+UP, OPTION+DOWN [Mac]\nPAGEUP,PAGEDOWN [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment selected slider up or down by 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOME,END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set selected slider to minimum or maximum value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
+    <t>UP,DOWN,RIGHT,LEFT</t>
+  </si>
+  <si>
+    <t>Increment selected slider up or down by step amount</t>
+  </si>
+  <si>
+    <t>OPTION+UP, OPTION+DOWN [Mac]\nPAGEUP,PAGEDOWN [Win]</t>
+  </si>
+  <si>
+    <t>Increment selected slider up or down by 10</t>
+  </si>
+  <si>
+    <t>HOME,END</t>
+  </si>
+  <si>
+    <t>Set selected slider to minimum or maximum value</t>
+  </si>
+  <si>
+    <t>Requires Keyboard Control enabled in Config&gt;&gt; Events
 Keyboard Shortcuts must be disabled (ENTER)</t>
   </si>
   <si>
-    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph/Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Data tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+L [Mac]\nCTRL+L [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open volume calculator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires a connected scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+I [Mac]\nCTRL+I [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Green Weight field (same action as 'in' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+O [Mac]\nCTRL+O [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+P [Mac]\nCTRL+P [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For various tables this copies the table in tabular form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Home Icon\nWhile recording only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation Toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Zoom Follow (automatic panning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoom action while recording sets Follow ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENU SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+S [Mac]\nCTRL+S [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+X [Mac]\nCTRL+X [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+V [Mac]\nCTRL+V [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+T [Mac]\nCTRL+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Roast Properties dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+B [Mac]\nCTRL+B [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Profile Background dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch Profiles (Foreground&lt;=&gt;Background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+D [Mac]\nCTRL+D [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Devices dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+U [Mac]\nCTRL+U [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Curves dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+E [Mac]\nCTRL+E [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Events dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+A [Mac]\nCTRL+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Alarms dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Axes dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+K [Mac]\nCTRL+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Auto All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Clear Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show/Hide Large Main LCDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
+    <t>OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Graph/Simulator</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t>⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
+    <t>Click on timer</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>Toggle Pause/Continue Simulation</t>
+  </si>
+  <si>
+    <t>Simulator speed may be changd while paused.  See next two shortcuts.</t>
+  </si>
+  <si>
+    <t>⌘+C [Mac]\nCTRL+C [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Data tab</t>
+  </si>
+  <si>
+    <t>Copy table</t>
+  </si>
+  <si>
+    <t>⌘+L [Mac]\nCTRL+L [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab</t>
+  </si>
+  <si>
+    <t>Open volume calculator</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
+  </si>
+  <si>
+    <t>Requires a connected scale</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight</t>
+  </si>
+  <si>
+    <t>⌘+I [Mac]\nCTRL+I [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Green Weight field (same action as 'in' button)</t>
+  </si>
+  <si>
+    <t>⌘+O [Mac]\nCTRL+O [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
+  </si>
+  <si>
+    <t>⌘+P [Mac]\nCTRL+P [Win]</t>
+  </si>
+  <si>
+    <t>Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
+  </si>
+  <si>
+    <t>OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
+  </si>
+  <si>
+    <t>Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
+  </si>
+  <si>
+    <t>OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
+  </si>
+  <si>
+    <t>OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>For various tables this copies the table in tabular form</t>
+  </si>
+  <si>
+    <t>Click on Home Icon\nWhile recording only</t>
+  </si>
+  <si>
+    <t>Navigation Toolbar</t>
+  </si>
+  <si>
+    <t>Toggle Zoom Follow (automatic panning)</t>
+  </si>
+  <si>
+    <t>Zoom action while recording sets Follow ON</t>
+  </si>
+  <si>
+    <t>MENU SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>⌘+S [Mac]\nCTRL+S [Win]</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>⌘+X [Mac]\nCTRL+X [Win]</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>⌘+V [Mac]\nCTRL+V [Win]</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>⌘+T [Mac]\nCTRL+T [Win]</t>
+  </si>
+  <si>
+    <t>Roast</t>
+  </si>
+  <si>
+    <t>Open Roast Properties dialog</t>
+  </si>
+  <si>
+    <t>⌘+B [Mac]\nCTRL+B [Win]</t>
+  </si>
+  <si>
+    <t>Open Profile Background dialog</t>
+  </si>
+  <si>
+    <t>⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
+  </si>
+  <si>
+    <t>Switch Profiles (Foreground&lt;=&gt;Background)</t>
+  </si>
+  <si>
+    <t>⌘+D [Mac]\nCTRL+D [Win]</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Open Devices dialog</t>
+  </si>
+  <si>
+    <t>⌘+U [Mac]\nCTRL+U [Win]</t>
+  </si>
+  <si>
+    <t>Open Curves dialog</t>
+  </si>
+  <si>
+    <t>⌘+E [Mac]\nCTRL+E [Win]</t>
+  </si>
+  <si>
+    <t>Open Events dialog</t>
+  </si>
+  <si>
+    <t>⌘+A [Mac]\nCTRL+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Alarms dialog</t>
+  </si>
+  <si>
+    <t>⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Axes dialog</t>
+  </si>
+  <si>
+    <t>⌘+K [Mac]\nCTRL+K [Win]</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Analyzer Auto All</t>
+  </si>
+  <si>
+    <t>⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
+  </si>
+  <si>
+    <t>Analyzer Clear Results</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Show/Hide Large Main LCDs</t>
+  </si>
+  <si>
+    <t>⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Full Screen Mode \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 </t>
   </si>
   <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open QuickStart Guide in the system browser</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Open QuickStart Guide in the system browser</t>
+  </si>
+  <si>
+    <t>Show plus Stock in alternate weight unit from Artisan setting (imperial &lt;-&gt; metric)</t>
+  </si>
+  <si>
+    <t>Requires a connection to plus</t>
+  </si>
+  <si>
+    <t>OPTION click Stock [Mac]\nALT click Stock [Win]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -707,22 +712,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -730,7 +720,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -743,8 +733,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -759,7 +756,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -767,120 +764,359 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
+    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -896,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -904,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -912,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -920,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -928,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -936,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -944,7 +1180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -952,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -960,7 +1196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -968,7 +1204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -976,7 +1212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -984,7 +1220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1008,7 +1244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1016,7 +1252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1024,7 +1260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1032,7 +1268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1040,7 +1276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1048,7 +1284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1056,7 +1292,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1064,7 +1300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1088,7 +1324,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1096,7 +1332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1104,7 +1340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1112,7 +1348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1120,7 +1356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1128,7 +1364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1136,7 +1372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1144,7 +1380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1152,7 +1388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1160,7 +1396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1169,42 +1405,34 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="72.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="45.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="6" width="9.14"/>
+    <col min="1" max="1" width="53" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="72" style="6" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="6" customWidth="1"/>
+    <col min="5" max="1024" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
@@ -1218,7 +1446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
@@ -1232,7 +1460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
@@ -1246,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>85</v>
       </c>
@@ -1257,7 +1485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
@@ -1268,7 +1496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>89</v>
       </c>
@@ -1282,7 +1510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>92</v>
       </c>
@@ -1293,7 +1521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>94</v>
       </c>
@@ -1304,7 +1532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
@@ -1315,7 +1543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>98</v>
       </c>
@@ -1326,7 +1554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>100</v>
       </c>
@@ -1337,7 +1565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>102</v>
       </c>
@@ -1351,7 +1579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>105</v>
       </c>
@@ -1365,7 +1593,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>107</v>
       </c>
@@ -1376,7 +1604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>109</v>
       </c>
@@ -1390,7 +1618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>109</v>
       </c>
@@ -1404,7 +1632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>109</v>
       </c>
@@ -1418,7 +1646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>116</v>
       </c>
@@ -1432,7 +1660,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>120</v>
       </c>
@@ -1446,7 +1674,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>122</v>
       </c>
@@ -1460,7 +1688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>124</v>
       </c>
@@ -1474,7 +1702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>127</v>
       </c>
@@ -1485,7 +1713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>130</v>
       </c>
@@ -1496,7 +1724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>132</v>
       </c>
@@ -1510,57 +1738,54 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>148</v>
       </c>
@@ -1574,7 +1799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>150</v>
       </c>
@@ -1588,7 +1813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>152</v>
       </c>
@@ -1602,88 +1827,97 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.58"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>150</v>
       </c>
@@ -1705,7 +1939,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>169</v>
       </c>
@@ -1716,7 +1950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>152</v>
       </c>
@@ -1727,7 +1961,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>172</v>
       </c>
@@ -1738,7 +1972,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -1749,7 +1983,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>176</v>
       </c>
@@ -1760,7 +1994,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>178</v>
       </c>
@@ -1771,7 +2005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>181</v>
       </c>
@@ -1782,7 +2016,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>183</v>
       </c>
@@ -1793,7 +2027,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>185</v>
       </c>
@@ -1804,7 +2038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>188</v>
       </c>
@@ -1815,7 +2049,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>190</v>
       </c>
@@ -1826,7 +2060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>192</v>
       </c>
@@ -1837,7 +2071,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>194</v>
       </c>
@@ -1848,7 +2082,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>196</v>
       </c>
@@ -1859,7 +2093,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>199</v>
       </c>
@@ -1870,7 +2104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>139</v>
       </c>
@@ -1881,7 +2115,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>203</v>
       </c>
@@ -1892,7 +2126,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>205</v>
       </c>
@@ -1904,12 +2138,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
+    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the corresponding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
     <t xml:space="preserve">V +  &lt;value&gt;</t>
@@ -823,11 +823,11 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
@@ -1144,17 +1144,17 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="74.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
+    <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
+    <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,652 +21,652 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="211">
-  <si>
-    <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turns ON/OFF Keyboard Shortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘-ENTER [Mac]\nCTRL+ENTER [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starts recording</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIFT-ENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turns Artisan OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Keyboard Shortcuts are ON chooses the current button
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
+  <si>
+    <t>KEYBOARD SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>Turns ON/OFF Keyboard Shortcuts</t>
+  </si>
+  <si>
+    <t>⌘-ENTER [Mac]\nCTRL+ENTER [Win]</t>
+  </si>
+  <si>
+    <t>Starts recording</t>
+  </si>
+  <si>
+    <t>SHIFT-ENTER</t>
+  </si>
+  <si>
+    <t>Turns Artisan OFF</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
-    <t xml:space="preserve">LEFT,RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change roast event key focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEFT,RIGHT,UP,DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move background (when sliders not visible or when Config&gt;&gt; Events&gt;&gt; Sliders tab&gt;&gt; Keyboard Control is not selected)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘-N [Mac]\nCRTL+N [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave + RESET + START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T [Mac]\nCTRL+SHIFT+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle mouse cross lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides LCD Readings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Extra Event Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Event Sliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Playback Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H\nCTRL+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove background profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle foreground curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle background curves “show full”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load alarms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+,-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec PID lookahead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ +,- [Mac]\nCRTL +,- [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc/dec graph resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes Event Button Palettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop ScreenShot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
+    <t>LEFT,RIGHT</t>
+  </si>
+  <si>
+    <t>Change roast event key focus</t>
+  </si>
+  <si>
+    <t>LEFT,RIGHT,UP,DOWN</t>
+  </si>
+  <si>
+    <t>Move background (when sliders not visible or when Config&gt;&gt; Events&gt;&gt; Sliders tab&gt;&gt; Keyboard Control is not selected)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Autosave</t>
+  </si>
+  <si>
+    <t>⌘-N [Mac]\nCRTL+N [Win]</t>
+  </si>
+  <si>
+    <t>Autosave + RESET + START</t>
+  </si>
+  <si>
+    <t>T [Mac]\nCTRL+SHIFT+T [Win]</t>
+  </si>
+  <si>
+    <t>Toggle mouse cross lines</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor mode (off/temp/delta)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Toggle LCD cursor (off/profile/background)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Shows/Hides Controls</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Shows/Hides LCD Readings</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shows/Hides Mini Event editor (on recording)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Buttons</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Shows/Hides Extra Event Buttons</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Shows/Hides Event Sliders</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Toggle PID mode</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Toggle Playback Events</t>
+  </si>
+  <si>
+    <t>H\nCTRL+H [Win]</t>
+  </si>
+  <si>
+    <t>Load background profile</t>
+  </si>
+  <si>
+    <t>OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
+  </si>
+  <si>
+    <t>Remove background profile</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Toggle foreground curves “show full”</t>
+  </si>
+  <si>
+    <t>Toggle background curves “show full”</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Load alarms</t>
+  </si>
+  <si>
+    <t>+,-</t>
+  </si>
+  <si>
+    <t>Inc/dec PID lookahead</t>
+  </si>
+  <si>
+    <t>⌘ +,- [Mac]\nCRTL +,- [Win]</t>
+  </si>
+  <si>
+    <t>Inc/dec graph resolution</t>
+  </si>
+  <si>
+    <t>⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
+  </si>
+  <si>
+    <t>Changes Event Button Palettes</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Application ScreenShot</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Desktop ScreenShot</t>
+  </si>
+  <si>
+    <t>Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the corresponding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
-    <t xml:space="preserve">V +  &lt;value&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire custom event button action. Value is a two digit number indicating the button number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F\nCTRL+SHIFT+F [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Screen Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADDITIONAL SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key/mouse stroke(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double click on Roast Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the roast in artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires an artisan.plus account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Click on Background Profile Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph &amp; Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only when a Background profile is loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on BT curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place or re-place events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle super mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right click on characteristics line below graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle set of characteristics displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characteristics must be enabled in Config&gt;&gt; Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when not red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle connect/disconnect to plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on plus icon (when it is red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sync the roast with artisan.plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When connected to plus, disconnect and clear credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate email message with Artisan Logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle debug logging mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide or Show corresponding Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on label in the Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detach IO Phidgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID Standby on and off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Fuji or Delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opens PID dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Hottop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph when Sliders visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence slider select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
+    <t>V +  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+  </si>
+  <si>
+    <t>OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Fire custom event button action. Value is a two digit number indicating the button number.</t>
+  </si>
+  <si>
+    <t>F\nCTRL+SHIFT+F [Win]</t>
+  </si>
+  <si>
+    <t>Full Screen Mode</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Key/mouse stroke(s)</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Double click on Roast Title</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Open the roast in artisan.plus</t>
+  </si>
+  <si>
+    <t>Requires an artisan.plus account</t>
+  </si>
+  <si>
+    <t>Double Click on Background Profile Title</t>
+  </si>
+  <si>
+    <t>Graph &amp; Designer</t>
+  </si>
+  <si>
+    <t>Toggle Show/Hide Background Profile</t>
+  </si>
+  <si>
+    <t>Only when a Background profile is loaded</t>
+  </si>
+  <si>
+    <t>Right click on BT curve</t>
+  </si>
+  <si>
+    <t>Place or re-place events</t>
+  </si>
+  <si>
+    <t>Right click on timer</t>
+  </si>
+  <si>
+    <t>Toggle super mode</t>
+  </si>
+  <si>
+    <t>Right click on characteristics line below graph</t>
+  </si>
+  <si>
+    <t>Toggle set of characteristics displayed</t>
+  </si>
+  <si>
+    <t>Characteristics must be enabled in Config&gt;&gt; Statistics</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when not red)</t>
+  </si>
+  <si>
+    <t>Toggle connect/disconnect to plus</t>
+  </si>
+  <si>
+    <t>Click on plus icon (when it is red)</t>
+  </si>
+  <si>
+    <t>Sync the roast with artisan.plus</t>
+  </si>
+  <si>
+    <t>⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>When connected to plus, disconnect and clear credentials</t>
+  </si>
+  <si>
+    <t>OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Generate email message with Artisan Logs</t>
+  </si>
+  <si>
+    <t>⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t>Toggle debug logging mode</t>
+  </si>
+  <si>
+    <t>Click on LCD</t>
+  </si>
+  <si>
+    <t>Hide or Show corresponding Curve</t>
+  </si>
+  <si>
+    <t>In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
+  </si>
+  <si>
+    <t>Click on label in the Legend</t>
+  </si>
+  <si>
+    <t>Only in OFF state when the Legend is displayed</t>
+  </si>
+  <si>
+    <t>OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
+  </si>
+  <si>
+    <t>Detach IO Phidgets</t>
+  </si>
+  <si>
+    <t>⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
+  </si>
+  <si>
+    <t>Toggle PID Standby on and off</t>
+  </si>
+  <si>
+    <t>Device = Fuji or Delta</t>
+  </si>
+  <si>
+    <t>Opens PID dialog</t>
+  </si>
+  <si>
+    <t>Device = Hottop</t>
+  </si>
+  <si>
+    <t>Toggle PID</t>
+  </si>
+  <si>
+    <t>Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>Graph when Sliders visible</t>
+  </si>
+  <si>
+    <t>Sequence slider select</t>
+  </si>
+  <si>
+    <t>Requires Keyboard Control enabled in Config&gt;&gt; Events
 Keyboard Shortcuts must be turned off (ENTER)</t>
   </si>
   <si>
-    <t xml:space="preserve">UP,DOWN,RIGHT,LEFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment selected slider up or down by step amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+UP, OPTION+DOWN [Mac]\nPAGEUP,PAGEDOWN [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment selected slider up or down by 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOME,END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set selected slider to minimum or maximum value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
+    <t>UP,DOWN,RIGHT,LEFT</t>
+  </si>
+  <si>
+    <t>Increment selected slider up or down by step amount</t>
+  </si>
+  <si>
+    <t>OPTION+UP, OPTION+DOWN [Mac]\nPAGEUP,PAGEDOWN [Win]</t>
+  </si>
+  <si>
+    <t>Increment selected slider up or down by 10</t>
+  </si>
+  <si>
+    <t>HOME,END</t>
+  </si>
+  <si>
+    <t>Set selected slider to minimum or maximum value</t>
+  </si>
+  <si>
+    <t>Requires Keyboard Control enabled in Config&gt;&gt; Events
 Keyboard Shortcuts must be disabled (ENTER)</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator speed may be changd while paused (hold shift  (1x), OPTION/ALT (2x) or COMMAND/CTRL (4x) on restart).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph/Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+L [Mac]\nCTRL+L [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open volume calculator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click Stock [Mac]\nALT click Stock [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show plus Stock in alternate weight unit from Artisan setting (imperial &lt;-&gt; metric)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires a connection to plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+I [Mac]\nCTRL+I [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Green Weight field (same action as 'in' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires a connected scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+O [Mac]\nCTRL+O [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+P [Mac]\nCTRL+P [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwrite with current scale weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast Properties Data tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For various tables this copies the table in tabular form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Home Icon\nWhile recording only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation Toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Zoom Follow (automatic panning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoom action while recording sets Follow ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENU SHORTCUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+S [Mac]\nCTRL+S [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+X [Mac]\nCTRL+X [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+V [Mac]\nCTRL+V [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+T [Mac]\nCTRL+T [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Roast Properties dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+B [Mac]\nCTRL+B [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Profile Background dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch Profiles (Foreground&lt;=&gt;Background)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+D [Mac]\nCTRL+D [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Devices dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+U [Mac]\nCTRL+U [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Curves dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+E [Mac]\nCTRL+E [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Events dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+A [Mac]\nCTRL+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Alarms dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Axes dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+K [Mac]\nCTRL+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Auto All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer Clear Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show/Hide Large Main LCDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
+    <t>Click on timer</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>Toggle Pause/Continue Simulation</t>
+  </si>
+  <si>
+    <t>Simulator speed may be changd while paused (hold shift  (1x), OPTION/ALT (2x) or COMMAND/CTRL (4x) on restart).</t>
+  </si>
+  <si>
+    <t>OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Graph/Simulator</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t>⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t>Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
+    <t>⌘+L [Mac]\nCTRL+L [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab</t>
+  </si>
+  <si>
+    <t>Open volume calculator</t>
+  </si>
+  <si>
+    <t>OPTION click Stock [Mac]\nALT click Stock [Win]</t>
+  </si>
+  <si>
+    <t>Show plus Stock in alternate weight unit from Artisan setting (imperial &lt;-&gt; metric)</t>
+  </si>
+  <si>
+    <t>Requires a connection to plus</t>
+  </si>
+  <si>
+    <t>OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
+  </si>
+  <si>
+    <t>Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
+  </si>
+  <si>
+    <t>OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
+  </si>
+  <si>
+    <t>Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
+  </si>
+  <si>
+    <t>⌘+I [Mac]\nCTRL+I [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Green Weight field (same action as 'in' button)</t>
+  </si>
+  <si>
+    <t>Requires a connected scale</t>
+  </si>
+  <si>
+    <t>⌘+O [Mac]\nCTRL+O [Win]</t>
+  </si>
+  <si>
+    <t>Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
+  </si>
+  <si>
+    <t>⌘+P [Mac]\nCTRL+P [Win]</t>
+  </si>
+  <si>
+    <t>Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
+  </si>
+  <si>
+    <t>Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
+  </si>
+  <si>
+    <t>Overwrite with current scale weight</t>
+  </si>
+  <si>
+    <t>⌘+C [Mac]\nCTRL+C [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Data tab</t>
+  </si>
+  <si>
+    <t>Copy table</t>
+  </si>
+  <si>
+    <t>OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>For various tables this copies the table in tabular form</t>
+  </si>
+  <si>
+    <t>Click on Home Icon\nWhile recording only</t>
+  </si>
+  <si>
+    <t>Navigation Toolbar</t>
+  </si>
+  <si>
+    <t>Toggle Zoom Follow (automatic panning)</t>
+  </si>
+  <si>
+    <t>Zoom action while recording sets Follow ON</t>
+  </si>
+  <si>
+    <t>MENU SHORTCUTS</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>⌘+S [Mac]\nCTRL+S [Win]</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>⌘+X [Mac]\nCTRL+X [Win]</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>⌘+V [Mac]\nCTRL+V [Win]</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>⌘+T [Mac]\nCTRL+T [Win]</t>
+  </si>
+  <si>
+    <t>Roast</t>
+  </si>
+  <si>
+    <t>Open Roast Properties dialog</t>
+  </si>
+  <si>
+    <t>⌘+B [Mac]\nCTRL+B [Win]</t>
+  </si>
+  <si>
+    <t>Open Profile Background dialog</t>
+  </si>
+  <si>
+    <t>⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
+  </si>
+  <si>
+    <t>Switch Profiles (Foreground&lt;=&gt;Background)</t>
+  </si>
+  <si>
+    <t>⌘+D [Mac]\nCTRL+D [Win]</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Open Devices dialog</t>
+  </si>
+  <si>
+    <t>⌘+U [Mac]\nCTRL+U [Win]</t>
+  </si>
+  <si>
+    <t>Open Curves dialog</t>
+  </si>
+  <si>
+    <t>⌘+E [Mac]\nCTRL+E [Win]</t>
+  </si>
+  <si>
+    <t>Open Events dialog</t>
+  </si>
+  <si>
+    <t>⌘+A [Mac]\nCTRL+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Alarms dialog</t>
+  </si>
+  <si>
+    <t>⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
+  </si>
+  <si>
+    <t>Open Axes dialog</t>
+  </si>
+  <si>
+    <t>⌘+K [Mac]\nCTRL+K [Win]</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Analyzer Auto All</t>
+  </si>
+  <si>
+    <t>⌘+OPTION+A [Mac]\nCTRL+ALT+K [Win]</t>
+  </si>
+  <si>
+    <t>Analyzer Clear Results</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Show/Hide Large Main LCDs</t>
+  </si>
+  <si>
+    <t>⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Full Screen Mode \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 </t>
   </si>
   <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open QuickStart Guide in the system browser</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Open QuickStart Guide in the system browser</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -676,22 +675,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -705,8 +689,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -721,7 +712,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -729,116 +720,356 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
+    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -854,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -862,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -878,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -886,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -894,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -902,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -910,7 +1141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -918,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -926,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -942,7 +1173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -950,7 +1181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -958,7 +1189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -966,7 +1197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -974,7 +1205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -982,7 +1213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -990,7 +1221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -998,7 +1229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1006,7 +1237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1014,7 +1245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1022,7 +1253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1030,7 +1261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1038,15 +1269,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1054,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1062,7 +1293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1070,7 +1301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1078,7 +1309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1086,7 +1317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1094,7 +1325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1102,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1110,7 +1341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1118,7 +1349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1127,42 +1358,34 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="74.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.13"/>
+    <col min="1" max="1" width="53" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="72" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" style="5" customWidth="1"/>
+    <col min="5" max="1024" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -1176,7 +1399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>77</v>
       </c>
@@ -1190,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>81</v>
       </c>
@@ -1204,7 +1427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
@@ -1215,7 +1438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
@@ -1226,7 +1449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>89</v>
       </c>
@@ -1240,7 +1463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
@@ -1251,7 +1474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>94</v>
       </c>
@@ -1262,7 +1485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -1273,7 +1496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>98</v>
       </c>
@@ -1284,7 +1507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>100</v>
       </c>
@@ -1295,7 +1518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>102</v>
       </c>
@@ -1309,7 +1532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>105</v>
       </c>
@@ -1323,7 +1546,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -1334,7 +1557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>109</v>
       </c>
@@ -1348,7 +1571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>109</v>
       </c>
@@ -1362,7 +1585,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>109</v>
       </c>
@@ -1376,7 +1599,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>116</v>
       </c>
@@ -1390,7 +1613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>120</v>
       </c>
@@ -1404,7 +1627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
@@ -1418,7 +1641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>124</v>
       </c>
@@ -1432,7 +1655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>127</v>
       </c>
@@ -1446,7 +1669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>131</v>
       </c>
@@ -1457,7 +1680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>134</v>
       </c>
@@ -1468,7 +1691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>136</v>
       </c>
@@ -1479,7 +1702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>139</v>
       </c>
@@ -1493,7 +1716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>142</v>
       </c>
@@ -1504,7 +1727,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>144</v>
       </c>
@@ -1515,7 +1738,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>146</v>
       </c>
@@ -1529,7 +1752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>149</v>
       </c>
@@ -1543,7 +1766,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>151</v>
       </c>
@@ -1557,7 +1780,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>153</v>
       </c>
@@ -1571,7 +1794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
@@ -1585,7 +1808,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>158</v>
       </c>
@@ -1596,7 +1819,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>161</v>
       </c>
@@ -1607,7 +1830,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>164</v>
       </c>
@@ -1621,42 +1844,33 @@
         <v>167</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.58"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
@@ -1678,7 +1892,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>172</v>
       </c>
@@ -1689,7 +1903,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>151</v>
       </c>
@@ -1700,7 +1914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>175</v>
       </c>
@@ -1711,7 +1925,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>158</v>
       </c>
@@ -1722,7 +1936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>179</v>
       </c>
@@ -1733,7 +1947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>181</v>
       </c>
@@ -1744,7 +1958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>184</v>
       </c>
@@ -1755,7 +1969,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>186</v>
       </c>
@@ -1766,7 +1980,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>188</v>
       </c>
@@ -1777,7 +1991,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -1788,7 +2002,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>193</v>
       </c>
@@ -1799,7 +2013,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>195</v>
       </c>
@@ -1810,7 +2024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>197</v>
       </c>
@@ -1821,7 +2035,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>199</v>
       </c>
@@ -1832,7 +2046,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>202</v>
       </c>
@@ -1843,7 +2057,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>136</v>
       </c>
@@ -1854,7 +2068,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>206</v>
       </c>
@@ -1865,7 +2079,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>208</v>
       </c>
@@ -1877,12 +2091,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave\Documents\GitHub\artisan\doc\help_dialogs\Input_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AA876-B8EC-4744-A652-B14B607A4132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
     <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
     <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="219">
   <si>
     <t>KEYBOARD SHORTCUTS</t>
   </si>
@@ -51,10 +57,6 @@
   </si>
   <si>
     <t>SPACE</t>
-  </si>
-  <si>
-    <t>When Keyboard Shortcuts are ON chooses the current button
-When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
     <t>LEFT,RIGHT</t>
@@ -660,12 +662,38 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
+When Keyboard Shortcuts are OFF adds a custom event
+When Meter=NONE opens dialog to manually enter temperatures during roast</t>
+  </si>
+  <si>
+    <t>When starting Artisan</t>
+  </si>
+  <si>
+    <t>Skip Settings Load</t>
+  </si>
+  <si>
+    <t>Hold Shift+Option [Mac]\nHold Shift+Alt [Win]</t>
+  </si>
+  <si>
+    <t>When quiting Artisan</t>
+  </si>
+  <si>
+    <t>Skip Settings Save</t>
+  </si>
+  <si>
+    <t>When opening a profile (.alog file)</t>
+  </si>
+  <si>
+    <t>Skip creating settings cache and ask user to apply existing settings or settings from profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -732,11 +760,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -753,7 +778,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,14 +786,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -806,7 +834,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -878,7 +906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,260 +1129,260 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>210</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1364,484 +1392,517 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="72" style="5" customWidth="1"/>
-    <col min="4" max="4" width="74.7109375" style="5" customWidth="1"/>
-    <col min="5" max="1024" width="9.140625" style="5"/>
+    <col min="1" max="1" width="53" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72" style="4" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" style="4" customWidth="1"/>
+    <col min="5" max="1024" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="8" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="5" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>167</v>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -1867,7 +1928,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,219 +1936,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave\Documents\GitHub\artisan\doc\help_dialogs\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AA876-B8EC-4744-A652-B14B607A4132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C4F1-29EB-4FF6-9632-7346689B02BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,9 +678,6 @@
     <t>Hold Shift+Option [Mac]\nHold Shift+Alt [Win]</t>
   </si>
   <si>
-    <t>When quiting Artisan</t>
-  </si>
-  <si>
     <t>Skip Settings Save</t>
   </si>
   <si>
@@ -688,6 +685,9 @@
   </si>
   <si>
     <t>Skip creating settings cache and ask user to apply existing settings or settings from profile</t>
+  </si>
+  <si>
+    <t>When quitting Artisan</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:AMJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1888,10 @@
         <v>214</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,10 +1899,10 @@
         <v>214</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave\Documents\GitHub\artisan\doc\help_dialogs\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C4F1-29EB-4FF6-9632-7346689B02BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C74CA40-ABBC-4DF4-A924-0D5B2E6EC19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="222">
   <si>
     <t>KEYBOARD SHORTCUTS</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>Detach IO Phidgets</t>
-  </si>
-  <si>
-    <t>⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
   </si>
   <si>
     <t>Toggle PID Standby on and off</t>
@@ -688,6 +685,18 @@
   </si>
   <si>
     <t>When quitting Artisan</t>
+  </si>
+  <si>
+    <t>⌘ click 'CONTROL' Button [Mac]\nCTRL click 'CONTROL' Button [Win]</t>
+  </si>
+  <si>
+    <t>⌘+PLUS, ⌘+MINUS [Mac]\nCTRL+SHIFT+PLUS, CTRL+MINUS [Win]</t>
+  </si>
+  <si>
+    <t>Increase or Decrease Graph Resolution %</t>
+  </si>
+  <si>
+    <t>Same as Config&gt;&gt; Curves&gt; UI tab&gt;&gt; Graph % +/-</t>
   </si>
 </sst>
 </file>
@@ -1086,18 +1095,18 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1129,15 +1138,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1297,15 +1306,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
@@ -1393,27 +1402,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ40"/>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="72" style="4" customWidth="1"/>
-    <col min="4" max="4" width="74.7109375" style="4" customWidth="1"/>
-    <col min="5" max="1024" width="9.140625" style="4"/>
+    <col min="4" max="4" width="74.7265625" style="4" customWidth="1"/>
+    <col min="5" max="1024" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>76</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>88</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>91</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>93</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>99</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>106</v>
       </c>
@@ -1585,324 +1594,338 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D21" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D22" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="4" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="4" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="4" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="4" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1919,236 +1942,236 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.26953125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="9" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the corresponding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
+    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4. The new &lt;value&gt; is established using the ENTER/RETURN key. The last digit can be removed by using the backspace key.</t>
   </si>
   <si>
     <t xml:space="preserve">V +  &lt;value&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
+    <t xml:space="preserve">Quick PID SV Entry. The new &lt;value&gt; is established using the ENTER/RETURN key. The last digit can be removed by using the backspace key.</t>
   </si>
   <si>
     <t xml:space="preserve">OPTION+B + &lt;value&gt; [Mac]\nCTRL+SHIFT+B + &lt;value&gt; [Win]</t>
@@ -792,44 +792,48 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -846,15 +850,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="44.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1268,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1168,13 +1278,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
@@ -1434,7 +1544,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
@@ -1448,7 +1558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>126</v>
       </c>
@@ -1462,7 +1572,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>128</v>
       </c>
@@ -1700,7 +1810,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1710,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1722,13 +1832,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="38.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="35.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="8" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1744,217 +1854,217 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>213</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave\Documents\GitHub\artisan\doc\help_dialogs\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8567E-D57A-4CBD-BCD6-E8B4233DB7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07452E-024F-4DB6-AC14-8AE514B20A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="490" windowWidth="17430" windowHeight="10790" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="-10" windowWidth="17430" windowHeight="10790" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
     <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
     <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="228">
   <si>
     <t>KEYBOARD SHORTCUTS</t>
   </si>
@@ -706,6 +715,15 @@
   </si>
   <si>
     <t>⌘+F [Mac]\nCTRL+F [Win]</t>
+  </si>
+  <si>
+    <t>Roast Properties Energy tab</t>
+  </si>
+  <si>
+    <t>Click on Energy / CO2 result area</t>
+  </si>
+  <si>
+    <t>Toggle 'per kg green coffee' result for Batch or Roast</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1717,38 +1735,38 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1756,10 +1774,10 @@
         <v>172</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1767,9 +1785,20 @@
         <v>172</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>178</v>
       </c>
     </row>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId3"/>
@@ -158,8 +158,7 @@
     <t xml:space="preserve">J</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle Playback Events
-(Expert and Standard modes)</t>
+    <t xml:space="preserve">Toggle Playback Events</t>
   </si>
   <si>
     <t xml:space="preserve">H\nCTRL+H [Win]</t>
@@ -871,52 +870,56 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1046,8 +1049,8 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1229,7 +1232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1998,19 +2001,19 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="38.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="35.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2026,222 +2029,222 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>171</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>213</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>224</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>229</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>233</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>236</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>242</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>243</v>
       </c>
     </row>
